--- a/excel/2025-05-20.xlsx
+++ b/excel/2025-05-20.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>user</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>test5</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>test6</t>
   </si>
 </sst>
 </file>
@@ -1561,13 +1567,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1637,6 +1643,20 @@
       </c>
       <c r="D5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2025-05-20.xlsx
+++ b/excel/2025-05-20.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>user</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>test6</t>
+  </si>
+  <si>
+    <t>测试7</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>测试8</t>
+  </si>
+  <si>
+    <t>test8</t>
   </si>
 </sst>
 </file>
@@ -1567,13 +1579,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1657,6 +1669,34 @@
       </c>
       <c r="D6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2025-05-20.xlsx
+++ b/excel/2025-05-20.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>user</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>test8</t>
+  </si>
+  <si>
+    <t>测试9</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>测试10</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>测试11</t>
+  </si>
+  <si>
+    <t>测试12</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test11</t>
   </si>
 </sst>
 </file>
@@ -1579,13 +1603,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1696,6 +1720,90 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>

--- a/excel/2025-05-20.xlsx
+++ b/excel/2025-05-20.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17140" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="选矿" sheetId="1" r:id="rId1"/>
     <sheet name="洗矿" sheetId="2" r:id="rId2"/>
     <sheet name="采矿" sheetId="3" r:id="rId3"/>
     <sheet name="综合办" sheetId="6" r:id="rId4"/>
+    <sheet name="breakfast" sheetId="7" r:id="rId5"/>
+    <sheet name="dinner" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>user</t>
   </si>
@@ -206,13 +208,37 @@
     <t>测试11</t>
   </si>
   <si>
+    <t>test11</t>
+  </si>
+  <si>
     <t>测试12</t>
   </si>
   <si>
     <t>test12</t>
   </si>
   <si>
-    <t>test11</t>
+    <t>测试15</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>测试14</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>测试13</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>ASD</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1227,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1232,7 +1258,7 @@
         <v>9122</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1246,7 +1272,7 @@
         <v>23123</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1274,7 +1300,7 @@
         <v>51125</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1288,7 +1314,7 @@
         <v>65126</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1316,7 +1342,7 @@
         <v>93128</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1330,7 +1356,7 @@
         <v>107129</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1358,7 +1384,7 @@
         <v>135131</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1505,7 +1531,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1603,10 +1629,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1633,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1770,7 +1796,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1781,10 +1807,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1795,20 +1821,100 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/2025-05-20.xlsx
+++ b/excel/2025-05-20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16660"/>
+    <workbookView windowWidth="28000" windowHeight="16660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="选矿" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>user</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>cxxzzz</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
   <si>
     <t>Bruce</t>
@@ -1227,8 +1230,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1629,15 +1632,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,13 +1653,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1667,52 +1673,52 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1723,10 +1729,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1737,10 +1743,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1751,10 +1757,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1765,10 +1771,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1779,10 +1785,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1793,10 +1799,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1807,10 +1813,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1821,10 +1827,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1835,10 +1841,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1849,10 +1855,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1863,10 +1869,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>1</v>

--- a/excel/2025-05-20.xlsx
+++ b/excel/2025-05-20.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16660" activeTab="3"/>
+    <workbookView windowHeight="17140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="选矿" sheetId="1" r:id="rId1"/>
     <sheet name="洗矿" sheetId="2" r:id="rId2"/>
     <sheet name="采矿" sheetId="3" r:id="rId3"/>
     <sheet name="综合办" sheetId="6" r:id="rId4"/>
-    <sheet name="breakfast" sheetId="7" r:id="rId5"/>
-    <sheet name="dinner" sheetId="8" r:id="rId6"/>
+    <sheet name="测试" sheetId="9" r:id="rId5"/>
+    <sheet name="breakfast" sheetId="7" r:id="rId6"/>
+    <sheet name="dinner" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>user</t>
   </si>
@@ -242,6 +243,33 @@
   </si>
   <si>
     <t>ASD</t>
+  </si>
+  <si>
+    <t>测试16</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>测试17</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>72950F43</t>
+  </si>
+  <si>
+    <t>测试18</t>
+  </si>
+  <si>
+    <t>B4AD78A7</t>
+  </si>
+  <si>
+    <t>测试19</t>
   </si>
 </sst>
 </file>
@@ -1632,10 +1660,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1881,6 +1909,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1888,6 +1944,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="9.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>72965173</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -1909,7 +2044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
